--- a/Chipkit Uno32 Pin Functions.xlsx
+++ b/Chipkit Uno32 Pin Functions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="202">
   <si>
     <t>Chipkit Uno32 Pin Diagram</t>
   </si>
@@ -626,16 +626,31 @@
     <t>AIN1(Derecho) - Motor Derecho Delantero</t>
   </si>
   <si>
-    <t>PWM - (MDD/MIT)</t>
-  </si>
-  <si>
-    <t>PWM - (MDT/MID)</t>
-  </si>
-  <si>
     <t>TX - Comunicacion Raspberry Pi</t>
   </si>
   <si>
     <t>RX - Comunicacion Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Servo Controller RX</t>
+  </si>
+  <si>
+    <t>Servo Controller TX</t>
+  </si>
+  <si>
+    <t>Sensor delantero derecho</t>
+  </si>
+  <si>
+    <t>Sensor delantero izquierdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM Rojo - PWMA (MDD/MIT) </t>
+  </si>
+  <si>
+    <t>PWM Negro - PWMB (MDT/MID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1121,6 +1136,150 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1130,6 +1289,159 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1144,303 +1456,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1786,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG26" sqref="BG26"/>
+    <sheetView tabSelected="1" topLeftCell="AD10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,236 +1870,236 @@
   <sheetData>
     <row r="1" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
     </row>
     <row r="3" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="92"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="120"/>
     </row>
     <row r="4" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="6" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="162" t="s">
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="153"/>
+      <c r="F7" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="163"/>
-      <c r="H7" s="163"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="163"/>
-      <c r="K7" s="164"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
+      <c r="J7" s="158"/>
+      <c r="K7" s="159"/>
     </row>
     <row r="8" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="167"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
     </row>
     <row r="9" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="168" t="s">
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="169"/>
-      <c r="H9" s="169"/>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="K9" s="170"/>
+      <c r="G9" s="164"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="164"/>
+      <c r="K9" s="165"/>
     </row>
     <row r="10" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="173"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="168"/>
       <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="174" t="s">
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="171"/>
     </row>
     <row r="12" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
-      <c r="Y12" s="79" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
+      <c r="Y12" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="80"/>
-      <c r="AE12" s="80"/>
-      <c r="AF12" s="80"/>
-      <c r="AG12" s="80"/>
-      <c r="AH12" s="80"/>
-      <c r="AI12" s="80"/>
-      <c r="AJ12" s="80"/>
-      <c r="AK12" s="80"/>
-      <c r="AL12" s="80"/>
-      <c r="AM12" s="81"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="128"/>
+      <c r="AF12" s="128"/>
+      <c r="AG12" s="128"/>
+      <c r="AH12" s="128"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="128"/>
+      <c r="AM12" s="129"/>
       <c r="AN12" s="47"/>
-      <c r="AO12" s="79" t="s">
+      <c r="AO12" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="AP12" s="80"/>
-      <c r="AQ12" s="80"/>
-      <c r="AR12" s="80"/>
-      <c r="AS12" s="80"/>
-      <c r="AT12" s="80"/>
-      <c r="AU12" s="80"/>
-      <c r="AV12" s="80"/>
-      <c r="AW12" s="80"/>
-      <c r="AX12" s="80"/>
-      <c r="AY12" s="80"/>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="80"/>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="80"/>
-      <c r="BF12" s="80"/>
-      <c r="BG12" s="81"/>
+      <c r="AP12" s="128"/>
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="128"/>
+      <c r="AS12" s="128"/>
+      <c r="AT12" s="128"/>
+      <c r="AU12" s="128"/>
+      <c r="AV12" s="128"/>
+      <c r="AW12" s="128"/>
+      <c r="AX12" s="128"/>
+      <c r="AY12" s="128"/>
+      <c r="AZ12" s="128"/>
+      <c r="BA12" s="128"/>
+      <c r="BB12" s="128"/>
+      <c r="BC12" s="128"/>
+      <c r="BD12" s="128"/>
+      <c r="BE12" s="128"/>
+      <c r="BF12" s="128"/>
+      <c r="BG12" s="129"/>
     </row>
     <row r="13" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="180" t="s">
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="181"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="182"/>
-      <c r="Y13" s="96" t="s">
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="177"/>
+      <c r="Y13" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="97"/>
-      <c r="AF13" s="97"/>
-      <c r="AG13" s="97"/>
-      <c r="AH13" s="97"/>
-      <c r="AI13" s="97"/>
-      <c r="AJ13" s="97"/>
-      <c r="AK13" s="97"/>
-      <c r="AL13" s="98"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="125"/>
+      <c r="AJ13" s="125"/>
+      <c r="AK13" s="125"/>
+      <c r="AL13" s="126"/>
       <c r="AM13" s="38" t="s">
         <v>171</v>
       </c>
       <c r="AN13" s="70"/>
-      <c r="AO13" s="99" t="s">
+      <c r="AO13" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="AP13" s="100"/>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="100"/>
-      <c r="AS13" s="100"/>
-      <c r="AT13" s="100"/>
-      <c r="AU13" s="100"/>
-      <c r="AV13" s="100"/>
-      <c r="AW13" s="100"/>
-      <c r="AX13" s="100"/>
-      <c r="AY13" s="100"/>
-      <c r="AZ13" s="100"/>
-      <c r="BA13" s="100"/>
-      <c r="BB13" s="101"/>
-      <c r="BC13" s="99" t="s">
+      <c r="AP13" s="131"/>
+      <c r="AQ13" s="131"/>
+      <c r="AR13" s="131"/>
+      <c r="AS13" s="131"/>
+      <c r="AT13" s="131"/>
+      <c r="AU13" s="131"/>
+      <c r="AV13" s="131"/>
+      <c r="AW13" s="131"/>
+      <c r="AX13" s="131"/>
+      <c r="AY13" s="131"/>
+      <c r="AZ13" s="131"/>
+      <c r="BA13" s="131"/>
+      <c r="BB13" s="132"/>
+      <c r="BC13" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="BD13" s="100"/>
-      <c r="BE13" s="100"/>
-      <c r="BF13" s="101"/>
+      <c r="BD13" s="131"/>
+      <c r="BE13" s="131"/>
+      <c r="BF13" s="132"/>
       <c r="BG13" s="38" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="135"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="184"/>
-      <c r="H14" s="184"/>
-      <c r="I14" s="184"/>
-      <c r="J14" s="184"/>
-      <c r="K14" s="185"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
       <c r="W14" s="67"/>
       <c r="X14" s="74">
         <v>41</v>
@@ -2154,20 +2169,20 @@
       <c r="BG14" s="53"/>
     </row>
     <row r="15" spans="2:59" x14ac:dyDescent="0.25">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="156" t="s">
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="158"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
       <c r="W15" s="68"/>
       <c r="X15" s="75">
         <v>40</v>
@@ -2196,7 +2211,9 @@
       </c>
       <c r="AK15" s="50"/>
       <c r="AL15" s="50"/>
-      <c r="AM15" s="61"/>
+      <c r="AM15" s="61" t="s">
+        <v>195</v>
+      </c>
       <c r="AN15" s="72" t="s">
         <v>183</v>
       </c>
@@ -2221,16 +2238,16 @@
       <c r="BG15" s="61"/>
     </row>
     <row r="16" spans="2:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
       <c r="W16" s="68"/>
       <c r="X16" s="75">
         <v>39</v>
@@ -2259,7 +2276,9 @@
       </c>
       <c r="AK16" s="48"/>
       <c r="AL16" s="48"/>
-      <c r="AM16" s="58"/>
+      <c r="AM16" s="58" t="s">
+        <v>196</v>
+      </c>
       <c r="AN16" s="72">
         <v>13</v>
       </c>
@@ -2292,20 +2311,20 @@
       <c r="BG16" s="58"/>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="121"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="102" t="s">
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="81"/>
       <c r="W17" s="68"/>
       <c r="X17" s="75">
         <v>38</v>
@@ -2367,16 +2386,16 @@
       <c r="BG17" s="61"/>
     </row>
     <row r="18" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="107"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="84"/>
       <c r="W18" s="68"/>
       <c r="X18" s="75">
         <v>37</v>
@@ -2432,20 +2451,20 @@
       <c r="BG18" s="58"/>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="108" t="s">
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
       <c r="W19" s="68"/>
       <c r="X19" s="75">
         <v>36</v>
@@ -2511,16 +2530,16 @@
       <c r="BG19" s="61"/>
     </row>
     <row r="20" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="117"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="113"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
       <c r="W20" s="68"/>
       <c r="X20" s="75">
         <v>35</v>
@@ -2634,35 +2653,37 @@
       <c r="BD21" s="50"/>
       <c r="BE21" s="50"/>
       <c r="BF21" s="60"/>
-      <c r="BG21" s="61"/>
+      <c r="BG21" s="61" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="79" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="128"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="128"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
       <c r="W22" s="68"/>
       <c r="X22" s="75">
         <v>33</v>
@@ -2717,41 +2738,43 @@
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="56"/>
-      <c r="BG22" s="58"/>
+      <c r="BG22" s="58" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="23" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="181" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
+      <c r="C23" s="182"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="182"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="182"/>
+      <c r="K23" s="183"/>
       <c r="L23" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="M23" s="85" t="s">
+      <c r="M23" s="184" t="s">
         <v>178</v>
       </c>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="85" t="s">
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="185"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="185"/>
+      <c r="T23" s="185"/>
+      <c r="U23" s="184" t="s">
         <v>179</v>
       </c>
-      <c r="V23" s="86"/>
+      <c r="V23" s="185"/>
       <c r="W23" s="68"/>
       <c r="X23" s="75">
         <v>32</v>
@@ -2896,7 +2919,7 @@
       <c r="BE24" s="48"/>
       <c r="BF24" s="56"/>
       <c r="BG24" s="58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -3076,11 +3099,13 @@
       <c r="BA26" s="48"/>
       <c r="BB26" s="56"/>
       <c r="BC26" s="57"/>
-      <c r="BD26" s="48"/>
+      <c r="BD26" s="48" t="s">
+        <v>201</v>
+      </c>
       <c r="BE26" s="48"/>
       <c r="BF26" s="56"/>
       <c r="BG26" s="58" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
@@ -3276,7 +3301,7 @@
       <c r="BE28" s="48"/>
       <c r="BF28" s="56"/>
       <c r="BG28" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3381,7 +3406,7 @@
       <c r="BE29" s="52"/>
       <c r="BF29" s="63"/>
       <c r="BG29" s="62" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
@@ -3402,12 +3427,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F17:K18"/>
-    <mergeCell ref="F19:K20"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F15:K16"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="L22:V22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="M23:T23"/>
+    <mergeCell ref="U23:V23"/>
     <mergeCell ref="B2:I4"/>
     <mergeCell ref="Y13:AL13"/>
     <mergeCell ref="Y12:AM12"/>
@@ -3422,11 +3446,12 @@
     <mergeCell ref="F9:K10"/>
     <mergeCell ref="F11:K12"/>
     <mergeCell ref="F13:K14"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="L22:V22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="M23:T23"/>
-    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="F17:K18"/>
+    <mergeCell ref="F19:K20"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
